--- a/ExcelFiles/NPPV_O2_FiO2.xlsx
+++ b/ExcelFiles/NPPV_O2_FiO2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\AllExcels\Rinsho_Excels\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\AllExcels\zRinshoExcels\NPPV O2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E517C-A718-4685-9825-7CB57010A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34BDEF-148E-4DE2-BCBD-38690ED4A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{390225CB-E1A7-439A-86D6-7F032BE44373}"/>
   </bookViews>
@@ -52,13 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吸気時間</t>
-    <rPh sb="0" eb="4">
-      <t>キュウキジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,6 +116,16 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>サンソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立上り時間</t>
+    <rPh sb="0" eb="2">
+      <t>タチアガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,7 +566,7 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" activeCellId="1" sqref="C2:C3 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
@@ -578,22 +581,18 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>500</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.5">
@@ -601,14 +600,14 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="e">
         <f>C2/C3*60/1000</f>
-        <v>60</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.5">
@@ -616,25 +615,23 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="e">
         <f>((C5-C7)*0.21+C7*1)/C5</f>
-        <v>0.34166666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -643,7 +640,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>0.3</v>
@@ -693,67 +690,67 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="e">
         <f>(($C$5*C10)-0.21*$C$5)/0.79</f>
-        <v>6.8354430379746836</v>
-      </c>
-      <c r="D11" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="8" t="e">
         <f t="shared" ref="D11:Q11" si="0">(($C$5*D10)-0.21*$C$5)/0.79</f>
-        <v>10.632911392405063</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>14.430379746835444</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>18.227848101265824</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>22.025316455696199</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>25.822784810126578</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>29.62025316455696</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>33.417721518987335</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>37.215189873417721</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="0"/>
-        <v>41.0126582278481</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="0"/>
-        <v>44.810126582278478</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="0"/>
-        <v>48.607594936708857</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="0"/>
-        <v>52.405063291139236</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="0"/>
-        <v>56.202531645569614</v>
-      </c>
-      <c r="Q11" s="8">
-        <f t="shared" si="0"/>
-        <v>59.999999999999993</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
